--- a/Streamlit_test/Examples/FRTS.xlsx
+++ b/Streamlit_test/Examples/FRTS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Documents\python codes\Streamlit_test\Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Documents\GitHub\Proyeccionconsumo_stl\Streamlit_test\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7ABFE8-C3EC-47D1-842F-35D47362F5DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5233C2-4DD2-4753-8130-C9EFBC1290C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C796BCA3-2FA4-4664-94CB-1CAFA793BC87}"/>
   </bookViews>
@@ -28,15 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>FRTS</t>
   </si>
   <si>
-    <t>frt38355</t>
-  </si>
-  <si>
-    <t>frt38868</t>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -394,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8873190-3545-473C-830E-FD76C1CEE33F}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,11 +409,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:A646" xr:uid="{BDE87B57-CA50-471E-9D28-0CEA53816AD9}"/>
   <phoneticPr fontId="1" type="noConversion"/>
